--- a/academic mogging.xlsx
+++ b/academic mogging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil Lunavat\Desktop\Academic Mogging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32104649-39AD-40FC-9006-F82F24A5B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA380C1-1379-4E2B-8CE5-45CA0ADD5CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{17B0BD8E-F8DE-4DB4-B779-FE95AF9D6ECD}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Subjects</t>
   </si>
@@ -196,6 +195,24 @@
   </si>
   <si>
     <t>conversion of all number systems into each other</t>
+  </si>
+  <si>
+    <t>https://www.brainkart.com/article/Important-Questions-and-Answers--Water-Technology_6795/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2NRTmf4SrlI&amp;list=PLdM-WZokR4taU9Q5fuj6nY7_SPwg3I_01</t>
+  </si>
+  <si>
+    <t>https://www.gpjajpur.org/public/uploads/lres-85.pdf</t>
+  </si>
+  <si>
+    <t>General Math Practice:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NY2gz_Kzc0Q&amp;list=PLUhebcqFf6aEm07MOovpDrXcyxfNNZgGi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O0gtKDu_cJc&amp;list=PLxCzCOWd7aiGmXg4NoX6R31AsC5LeCPHe</t>
   </si>
 </sst>
 </file>
@@ -246,13 +263,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +288,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48910484-2642-4FF5-9917-EBA8A44DAA97}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,103 +652,103 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -771,19 +791,19 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="1"/>
@@ -797,16 +817,16 @@
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="1"/>
@@ -820,11 +840,11 @@
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1"/>
@@ -838,14 +858,14 @@
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -858,7 +878,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -866,16 +886,20 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -883,12 +907,20 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -898,10 +930,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -911,16 +943,60 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
